--- a/resources/БАЗА ДАННЫХ/litefinance/excel/Forextradingvn.xlsx
+++ b/resources/БАЗА ДАННЫХ/litefinance/excel/Forextradingvn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,12 +488,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AUDJPY</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -503,27 +503,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2023.11.27 09:04</t>
+          <t>2023.11.27 16:14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>98.16</t>
+          <t>0.65946</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.11.27 10:54</t>
+          <t>2023.11.27 17:33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98.465</t>
+          <t>0.65883</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>10,22 USD</t>
+          <t>-0,63 USD</t>
         </is>
       </c>
     </row>
@@ -535,49 +535,49 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDJPY</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2023.11.27 08:30</t>
+          <t>2023.11.27 15:57</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.26227</t>
+          <t>98.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.11.27 08:53</t>
+          <t>2023.11.27 16:13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.2611</t>
+          <t>98.179</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-1,17 USD</t>
+          <t>-0,33 USD</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NZDJPY</t>
+          <t>EURGBP</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -587,39 +587,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2023.11.27 05:25</t>
+          <t>2023.11.27 15:52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.321</t>
+          <t>0.86623</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.11.27 06:58</t>
+          <t>2023.11.27 16:13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>90.496</t>
+          <t>0.86707</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>-1,18 USD</t>
+          <t>-3,18 USD</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>EURAUD</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -629,39 +629,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023.11.27 05:25</t>
+          <t>2023.11.27 12:19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>187.666</t>
+          <t>1.65776</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023.11.27 06:58</t>
+          <t>2023.11.27 15:50</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>188.084</t>
+          <t>1.65818</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>-2,81 USD</t>
+          <t>-1,39 USD</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -671,27 +671,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023.11.27 03:38</t>
+          <t>2023.11.27 11:11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2009.98</t>
+          <t>0.65961</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2023.11.27 06:58</t>
+          <t>2023.11.27 15:50</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2010.66</t>
+          <t>0.65919</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0,68 USD</t>
+          <t>-4,20 USD</t>
         </is>
       </c>
     </row>
@@ -703,49 +703,49 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CHFJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023.11.27 03:53</t>
+          <t>2023.11.27 14:31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>169.082</t>
+          <t>2016.5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.11.27 06:58</t>
+          <t>2023.11.27 15:50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>169.125</t>
+          <t>2010.97</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>-0,29 USD</t>
+          <t>-5,53 USD</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CADJPY</t>
+          <t>EURGBP</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -755,34 +755,34 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023.11.27 04:04</t>
+          <t>2023.11.27 12:20</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>109.21</t>
+          <t>0.86724</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.11.27 06:12</t>
+          <t>2023.11.27 15:50</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>109.156</t>
+          <t>0.86624</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0,72 USD</t>
+          <t>6,31 USD</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -792,74 +792,74 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2023.11.27 03:18</t>
+          <t>2023.11.27 09:09</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>187.934</t>
+          <t>188.118</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.11.27 03:38</t>
+          <t>2023.11.27 15:25</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>187.995</t>
+          <t>187.882</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>-1,64 USD</t>
+          <t>-4,76 USD</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>EURAUD</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2023.11.27 03:06</t>
+          <t>2023.11.27 12:19</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>187.872</t>
+          <t>1.65799</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.11.27 03:15</t>
+          <t>2023.11.27 12:19</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>187.987</t>
+          <t>1.65775</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>-3,08 USD</t>
+          <t>-0,79 USD</t>
         </is>
       </c>
     </row>
@@ -871,37 +871,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>EURJPY</t>
+          <t>CADJPY</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2023.11.27 03:06</t>
+          <t>2023.11.27 09:04</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>163.202</t>
+          <t>109.354</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.11.27 03:15</t>
+          <t>2023.11.27 12:18</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>163.314</t>
+          <t>109.223</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>-3,75 USD</t>
+          <t>-4,39 USD</t>
         </is>
       </c>
     </row>
@@ -913,37 +913,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CADJPY</t>
+          <t>AUDJPY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2023.11.27 03:06</t>
+          <t>2023.11.27 09:04</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>109.344</t>
+          <t>98.16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.11.27 03:15</t>
+          <t>2023.11.27 10:54</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>109.388</t>
+          <t>98.465</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>-1,47 USD</t>
+          <t>10,22 USD</t>
         </is>
       </c>
     </row>
@@ -955,49 +955,49 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2023.11.27 03:08</t>
+          <t>2023.11.27 08:30</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>187.851</t>
+          <t>1.26227</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.11.27 03:15</t>
+          <t>2023.11.27 08:53</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>187.987</t>
+          <t>1.2611</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>-0,91 USD</t>
+          <t>-1,17 USD</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GOLD</t>
+          <t>NZDJPY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1007,27 +1007,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2023.11.27 03:02</t>
+          <t>2023.11.27 05:25</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2009.35</t>
+          <t>90.321</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.11.27 03:05</t>
+          <t>2023.11.27 06:58</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2010.42</t>
+          <t>90.496</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-5,35 USD</t>
+          <t>-1,18 USD</t>
         </is>
       </c>
     </row>
@@ -1039,37 +1039,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2023.11.27 02:30</t>
+          <t>2023.11.27 05:25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0.60913</t>
+          <t>187.666</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.11.27 03:00</t>
+          <t>2023.11.27 06:58</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.60842</t>
+          <t>188.084</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>-0,71 USD</t>
+          <t>-2,81 USD</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1091,27 +1091,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2023.11.27 02:30</t>
+          <t>2023.11.27 03:38</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.65942</t>
+          <t>2009.98</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.11.27 03:00</t>
+          <t>2023.11.27 06:58</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.65856</t>
+          <t>2010.66</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>-0,86 USD</t>
+          <t>0,68 USD</t>
         </is>
       </c>
     </row>
@@ -1123,247 +1123,247 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>CHFJPY</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2023.11.27 02:21</t>
+          <t>2023.11.27 03:53</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.25994</t>
+          <t>169.082</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2023.11.27 03:00</t>
+          <t>2023.11.27 06:58</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.26009</t>
+          <t>169.125</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>0,15 USD</t>
+          <t>-0,29 USD</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NZDJPY</t>
+          <t>CADJPY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2023.11.24 15:16</t>
+          <t>2023.11.27 04:04</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.797</t>
+          <t>109.21</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2023.11.27 02:01</t>
+          <t>2023.11.27 06:12</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>90.833</t>
+          <t>109.156</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0,29 USD</t>
+          <t>0,72 USD</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2023.11.24 15:00</t>
+          <t>2023.11.27 03:18</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.25777</t>
+          <t>187.934</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2023.11.27 02:01</t>
+          <t>2023.11.27 03:38</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1.25911</t>
+          <t>187.995</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1,31 USD</t>
+          <t>-1,64 USD</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>EURJPY</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2023.11.24 14:37</t>
+          <t>2023.11.27 03:06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>163.284</t>
+          <t>187.872</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2023.11.27 02:01</t>
+          <t>2023.11.27 03:15</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>163.38</t>
+          <t>187.987</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>0,68 USD</t>
+          <t>-3,08 USD</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CADJPY</t>
+          <t>EURJPY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2023.11.24 10:21</t>
+          <t>2023.11.27 03:06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>109.289</t>
+          <t>163.202</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2023.11.27 02:01</t>
+          <t>2023.11.27 03:15</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>109.613</t>
+          <t>163.314</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2,21 USD</t>
+          <t>-3,75 USD</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>CADJPY</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2023.11.24 16:03</t>
+          <t>2023.11.27 03:06</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.2605</t>
+          <t>109.344</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2023.11.27 02:01</t>
+          <t>2023.11.27 03:15</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1.25911</t>
+          <t>109.388</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>-1,42 USD</t>
+          <t>-1,47 USD</t>
         </is>
       </c>
     </row>
@@ -1375,79 +1375,79 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2023.11.24 15:59</t>
+          <t>2023.11.27 03:08</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.09386</t>
+          <t>187.851</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2023.11.27 02:01</t>
+          <t>2023.11.27 03:15</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1.09266</t>
+          <t>187.987</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>-1,28 USD</t>
+          <t>-0,91 USD</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHFJPY</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2023.11.24 15:52</t>
+          <t>2023.11.27 03:02</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>169.492</t>
+          <t>2009.35</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2023.11.27 02:01</t>
+          <t>2023.11.27 03:05</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>169.366</t>
+          <t>2010.42</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>-0,84 USD</t>
+          <t>-5,35 USD</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1469,27 +1469,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2023.11.24 15:49</t>
+          <t>2023.11.27 02:30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>188.352</t>
+          <t>0.60913</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2023.11.27 02:01</t>
+          <t>2023.11.27 03:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>188.271</t>
+          <t>0.60842</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>-0,47 USD</t>
+          <t>-0,71 USD</t>
         </is>
       </c>
     </row>
@@ -1501,37 +1501,37 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>EURGBP</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2023.11.24 15:47</t>
+          <t>2023.11.27 02:30</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>0.86781</t>
+          <t>0.65942</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2023.11.27 02:01</t>
+          <t>2023.11.27 03:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.86787</t>
+          <t>0.65856</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>-0,05 USD</t>
+          <t>-0,86 USD</t>
         </is>
       </c>
     </row>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AUDJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1553,27 +1553,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2023.11.24 15:37</t>
+          <t>2023.11.27 02:21</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>98.306</t>
+          <t>1.25994</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2023.11.24 16:30</t>
+          <t>2023.11.27 03:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>98.448</t>
+          <t>1.26009</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0,95 USD</t>
+          <t>0,15 USD</t>
         </is>
       </c>
     </row>
@@ -1585,37 +1585,37 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>NZDJPY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2023.11.24 15:56</t>
+          <t>2023.11.24 15:16</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0.88203</t>
+          <t>90.797</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2023.11.24 15:58</t>
+          <t>2023.11.27 02:01</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.88194</t>
+          <t>90.833</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>0,29 USD</t>
         </is>
       </c>
     </row>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>GBPAUD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1637,27 +1637,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2023.11.24 15:35</t>
+          <t>2023.11.24 15:00</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.91557</t>
+          <t>1.25777</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2023.11.24 15:40</t>
+          <t>2023.11.27 02:01</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.91474</t>
+          <t>1.25911</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>-0,54 USD</t>
+          <t>1,31 USD</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NZDJPY</t>
+          <t>EURJPY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1679,27 +1679,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2023.11.24 14:44</t>
+          <t>2023.11.24 14:37</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>90.786</t>
+          <t>163.284</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2023.11.24 14:59</t>
+          <t>2023.11.27 02:01</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>90.773</t>
+          <t>163.38</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>-0,09 USD</t>
+          <t>0,68 USD</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>CADJPY</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1721,27 +1721,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2023.11.24 08:49</t>
+          <t>2023.11.24 10:21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0.8297</t>
+          <t>109.289</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2023.11.24 09:18</t>
+          <t>2023.11.27 02:01</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.82901</t>
+          <t>109.613</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>-0,50 USD</t>
+          <t>2,21 USD</t>
         </is>
       </c>
     </row>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NZDJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1763,27 +1763,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2023.11.24 08:48</t>
+          <t>2023.11.24 16:03</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>90.51</t>
+          <t>1.2605</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2023.11.24 09:18</t>
+          <t>2023.11.27 02:01</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>90.518</t>
+          <t>1.25911</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>0,06 USD</t>
+          <t>-1,42 USD</t>
         </is>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NZDCHF</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1805,27 +1805,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2023.11.24 08:47</t>
+          <t>2023.11.24 15:59</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0.53555</t>
+          <t>1.09386</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2023.11.24 09:18</t>
+          <t>2023.11.27 02:01</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.53491</t>
+          <t>1.09266</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>-0,72 USD</t>
+          <t>-1,28 USD</t>
         </is>
       </c>
     </row>
@@ -1837,121 +1837,121 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AUDNZD</t>
+          <t>CHFJPY</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2023.11.24 08:45</t>
+          <t>2023.11.24 15:52</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.08332</t>
+          <t>169.492</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2023.11.24 09:18</t>
+          <t>2023.11.27 02:01</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>1.08382</t>
+          <t>169.366</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>-0,30 USD</t>
+          <t>-0,84 USD</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GBPNZD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2023.11.24 08:06</t>
+          <t>2023.11.24 15:49</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2.07028</t>
+          <t>188.352</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2023.11.24 09:18</t>
+          <t>2023.11.27 02:01</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.07104</t>
+          <t>188.271</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>-1,38 USD</t>
+          <t>-0,47 USD</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>EURGBP</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2023.11.24 07:00</t>
+          <t>2023.11.24 15:47</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0.65686</t>
+          <t>0.86781</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2023.11.24 08:02</t>
+          <t>2023.11.27 02:01</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.65624</t>
+          <t>0.86787</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>-9,30 USD</t>
+          <t>-0,05 USD</t>
         </is>
       </c>
     </row>
@@ -1963,37 +1963,37 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AUDNZD</t>
+          <t>AUDJPY</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2023.11.24 04:00</t>
+          <t>2023.11.24 15:37</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1.08366</t>
+          <t>98.306</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2023.11.24 06:58</t>
+          <t>2023.11.24 16:30</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.08416</t>
+          <t>98.448</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>-0,31 USD</t>
+          <t>0,95 USD</t>
         </is>
       </c>
     </row>
@@ -2005,37 +2005,37 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2023.11.23 16:56</t>
+          <t>2023.11.24 15:56</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>0.60456</t>
+          <t>0.88203</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2023.11.24 04:00</t>
+          <t>2023.11.24 15:58</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.60466</t>
+          <t>0.88194</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>0,08 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CHFJPY</t>
+          <t>GBPAUD</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2057,27 +2057,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2023.11.23 16:25</t>
+          <t>2023.11.24 15:35</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>169.41</t>
+          <t>1.91557</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2023.11.23 16:55</t>
+          <t>2023.11.24 15:40</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>169.22</t>
+          <t>1.91474</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>-1,27 USD</t>
+          <t>-0,54 USD</t>
         </is>
       </c>
     </row>
@@ -2099,39 +2099,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2023.11.23 15:52</t>
+          <t>2023.11.24 14:44</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>90.398</t>
+          <t>90.786</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2023.11.23 16:55</t>
+          <t>2023.11.24 14:59</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>90.366</t>
+          <t>90.773</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>-0,21 USD</t>
+          <t>-0,09 USD</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AUDJPY</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2141,81 +2141,81 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2023.11.23 15:33</t>
+          <t>2023.11.24 08:49</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>98.068</t>
+          <t>0.8297</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2023.11.23 16:55</t>
+          <t>2023.11.24 09:18</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>98.103</t>
+          <t>0.82901</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>0,47 USD</t>
+          <t>-0,50 USD</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDJPY</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2023.11.23 15:27</t>
+          <t>2023.11.24 08:48</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.25275</t>
+          <t>90.51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2023.11.23 15:32</t>
+          <t>2023.11.24 09:18</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1.25339</t>
+          <t>90.518</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>-1,28 USD</t>
+          <t>0,06 USD</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NZDJPY</t>
+          <t>NZDCHF</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2225,123 +2225,123 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2023.11.23 14:43</t>
+          <t>2023.11.24 08:47</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>90.348</t>
+          <t>0.53555</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2023.11.23 15:26</t>
+          <t>2023.11.24 09:18</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>90.302</t>
+          <t>0.53491</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>-1,54 USD</t>
+          <t>-0,72 USD</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>AUDNZD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2023.11.23 14:43</t>
+          <t>2023.11.24 08:45</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0.82864</t>
+          <t>1.08332</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2023.11.23 15:26</t>
+          <t>2023.11.24 09:18</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>0.8277</t>
+          <t>1.08382</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>-3,43 USD</t>
+          <t>-0,30 USD</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>GBPJPY</t>
+          <t>GBPNZD</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2023.11.23 14:33</t>
+          <t>2023.11.24 08:06</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>187.497</t>
+          <t>2.07028</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2023.11.23 14:42</t>
+          <t>2023.11.24 09:18</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>187.435</t>
+          <t>2.07104</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>-0,83 USD</t>
+          <t>-1,38 USD</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2351,27 +2351,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2023.11.23 14:30</t>
+          <t>2023.11.24 07:00</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>149.522</t>
+          <t>0.65686</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2023.11.23 14:42</t>
+          <t>2023.11.24 08:02</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>149.454</t>
+          <t>0.65624</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>-4,55 USD</t>
+          <t>-9,30 USD</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>AUDNZD</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2393,27 +2393,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2023.11.23 14:04</t>
+          <t>2023.11.24 04:00</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0.65527</t>
+          <t>1.08366</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2023.11.23 14:27</t>
+          <t>2023.11.24 06:58</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.65583</t>
+          <t>1.08416</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>-0,56 USD</t>
+          <t>-0,31 USD</t>
         </is>
       </c>
     </row>
@@ -2430,32 +2430,32 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2023.11.23 13:36</t>
+          <t>2023.11.23 16:56</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0.60441</t>
+          <t>0.60456</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2023.11.23 14:27</t>
+          <t>2023.11.24 04:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0.60434</t>
+          <t>0.60466</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>0,07 USD</t>
+          <t>0,08 USD</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>EURJPY</t>
+          <t>CHFJPY</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2477,27 +2477,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2023.11.23 10:19</t>
+          <t>2023.11.23 16:25</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>162.903</t>
+          <t>169.41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2023.11.23 13:36</t>
+          <t>2023.11.23 16:55</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>162.797</t>
+          <t>169.22</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>-0,71 USD</t>
+          <t>-1,27 USD</t>
         </is>
       </c>
     </row>
@@ -2519,27 +2519,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2023.11.23 10:20</t>
+          <t>2023.11.23 15:52</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>90.328</t>
+          <t>90.398</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2023.11.23 13:36</t>
+          <t>2023.11.23 16:55</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>90.245</t>
+          <t>90.366</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>-0,56 USD</t>
+          <t>-0,21 USD</t>
         </is>
       </c>
     </row>
@@ -2551,7 +2551,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>AUDJPY</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2561,76 +2561,76 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2023.11.23 09:20</t>
+          <t>2023.11.23 15:33</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0.82807</t>
+          <t>98.068</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2023.11.23 09:57</t>
+          <t>2023.11.23 16:55</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0.82711</t>
+          <t>98.103</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>-1,40 USD</t>
+          <t>0,47 USD</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NZDJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2023.11.23 09:19</t>
+          <t>2023.11.23 15:27</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>90.371</t>
+          <t>1.25275</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2023.11.23 09:57</t>
+          <t>2023.11.23 15:32</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>90.28</t>
+          <t>1.25339</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>-1,83 USD</t>
+          <t>-1,28 USD</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2645,34 +2645,34 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2023.11.23 09:16</t>
+          <t>2023.11.23 14:43</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>90.362</t>
+          <t>90.348</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2023.11.23 09:57</t>
+          <t>2023.11.23 15:26</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>90.28</t>
+          <t>90.302</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>-1,65 USD</t>
+          <t>-1,54 USD</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2687,27 +2687,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2023.11.23 09:20</t>
+          <t>2023.11.23 14:43</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0.82807</t>
+          <t>0.82864</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2023.11.23 09:57</t>
+          <t>2023.11.23 15:26</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0.82711</t>
+          <t>0.8277</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>-1,40 USD</t>
+          <t>-3,43 USD</t>
         </is>
       </c>
     </row>
@@ -2719,49 +2719,49 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>EURAUD</t>
+          <t>GBPJPY</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2023.11.23 09:20</t>
+          <t>2023.11.23 14:33</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1.66081</t>
+          <t>187.497</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2023.11.23 09:57</t>
+          <t>2023.11.23 14:42</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1.6625</t>
+          <t>187.435</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>-2,22 USD</t>
+          <t>-0,83 USD</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NZDJPY</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2771,69 +2771,69 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2023.11.23 09:19</t>
+          <t>2023.11.23 14:30</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>90.377</t>
+          <t>149.522</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2023.11.23 09:57</t>
+          <t>2023.11.23 14:42</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>90.28</t>
+          <t>149.454</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>-1,95 USD</t>
+          <t>-4,55 USD</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>EURCAD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2023.11.23 09:20</t>
+          <t>2023.11.23 14:04</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>1.49077</t>
+          <t>0.65527</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2023.11.23 09:21</t>
+          <t>2023.11.23 14:27</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>1.49057</t>
+          <t>0.65583</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>-0,29 USD</t>
+          <t>-0,56 USD</t>
         </is>
       </c>
     </row>
@@ -2845,37 +2845,37 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NZDJPY</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2023.11.23 09:01</t>
+          <t>2023.11.23 13:36</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>90.397</t>
+          <t>0.60441</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2023.11.23 09:15</t>
+          <t>2023.11.23 14:27</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>90.338</t>
+          <t>0.60434</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>-0,39 USD</t>
+          <t>0,07 USD</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AUDJPY</t>
+          <t>EURJPY</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2897,34 +2897,34 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2023.11.23 08:54</t>
+          <t>2023.11.23 10:19</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>97.998</t>
+          <t>162.903</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2023.11.23 09:15</t>
+          <t>2023.11.23 13:36</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>97.919</t>
+          <t>162.797</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>-0,53 USD</t>
+          <t>-0,71 USD</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2939,39 +2939,39 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2023.11.23 08:24</t>
+          <t>2023.11.23 10:20</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>90.325</t>
+          <t>90.328</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2023.11.23 08:51</t>
+          <t>2023.11.23 13:36</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>90.333</t>
+          <t>90.245</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>0,10 USD</t>
+          <t>-0,56 USD</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2981,76 +2981,76 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2023.11.23 08:46</t>
+          <t>2023.11.23 09:20</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0.65723</t>
+          <t>0.82807</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2023.11.23 08:51</t>
+          <t>2023.11.23 09:57</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0.65688</t>
+          <t>0.82711</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>-0,35 USD</t>
+          <t>-1,40 USD</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EURAUD</t>
+          <t>NZDJPY</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2023.11.23 07:02</t>
+          <t>2023.11.23 09:19</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>1.66184</t>
+          <t>90.371</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2023.11.23 08:06</t>
+          <t>2023.11.23 09:57</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>1.66259</t>
+          <t>90.28</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>-0,50 USD</t>
+          <t>-1,83 USD</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3065,39 +3065,39 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2023.11.23 07:29</t>
+          <t>2023.11.23 09:16</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>90.362</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2023.11.23 08:06</t>
+          <t>2023.11.23 09:57</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>90.302</t>
+          <t>90.28</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>-0,32 USD</t>
+          <t>-1,65 USD</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3107,81 +3107,81 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2023.11.23 07:04</t>
+          <t>2023.11.23 09:20</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0.6062</t>
+          <t>0.82807</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2023.11.23 08:06</t>
+          <t>2023.11.23 09:57</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.60552</t>
+          <t>0.82711</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>-0,68 USD</t>
+          <t>-1,40 USD</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>NZDCAD</t>
+          <t>EURAUD</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2023.11.23 04:50</t>
+          <t>2023.11.23 09:20</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0.8281</t>
+          <t>1.66081</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2023.11.23 08:06</t>
+          <t>2023.11.23 09:57</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.82753</t>
+          <t>1.6625</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>-0,42 USD</t>
+          <t>-2,22 USD</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDJPY</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3191,69 +3191,69 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2023.11.23 03:12</t>
+          <t>2023.11.23 09:19</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>1.25002</t>
+          <t>90.377</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2023.11.23 08:06</t>
+          <t>2023.11.23 09:57</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>1.25017</t>
+          <t>90.28</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>0,30 USD</t>
+          <t>-1,95 USD</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>USDCHF</t>
+          <t>EURCAD</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2023.11.23 07:03</t>
+          <t>2023.11.23 09:20</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0.88249</t>
+          <t>1.49077</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2023.11.23 08:06</t>
+          <t>2023.11.23 09:21</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.88306</t>
+          <t>1.49057</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>-0,65 USD</t>
+          <t>-0,29 USD</t>
         </is>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>NZDJPY</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3275,81 +3275,81 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2023.11.23 03:13</t>
+          <t>2023.11.23 09:01</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0.6558</t>
+          <t>90.397</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2023.11.23 08:06</t>
+          <t>2023.11.23 09:15</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>0.65597</t>
+          <t>90.338</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>0,17 USD</t>
+          <t>-0,39 USD</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDJPY</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2023.11.23 00:02</t>
+          <t>2023.11.23 08:54</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1.24917</t>
+          <t>97.998</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2023.11.23 03:11</t>
+          <t>2023.11.23 09:15</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>97.919</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>-4,15 USD</t>
+          <t>-0,53 USD</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EURJPY</t>
+          <t>NZDJPY</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3359,153 +3359,153 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2023.11.22 16:12</t>
+          <t>2023.11.23 08:24</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>162.492</t>
+          <t>90.325</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 08:51</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>162.732</t>
+          <t>90.333</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>4,82 USD</t>
+          <t>0,10 USD</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2023.11.22 16:40</t>
+          <t>2023.11.23 08:46</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1.24487</t>
+          <t>0.65723</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 08:51</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>1.24815</t>
+          <t>0.65688</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>-9,84 USD</t>
+          <t>-0,35 USD</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>EURAUD</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2023.11.22 16:02</t>
+          <t>2023.11.23 07:02</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>149.523</t>
+          <t>1.66184</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 08:06</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>149.587</t>
+          <t>1.66259</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>1,28 USD</t>
+          <t>-0,50 USD</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NZDCHF</t>
+          <t>NZDJPY</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2023.11.22 16:13</t>
+          <t>2023.11.23 07:29</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0.5322</t>
+          <t>90.35</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 08:06</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.53236</t>
+          <t>90.302</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>-0,54 USD</t>
+          <t>-0,32 USD</t>
         </is>
       </c>
     </row>
@@ -3517,133 +3517,133 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2023.11.22 16:07</t>
+          <t>2023.11.23 07:04</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1.08579</t>
+          <t>0.6062</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 08:06</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1.08782</t>
+          <t>0.60552</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>-2,03 USD</t>
+          <t>-0,68 USD</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>NZDCAD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2023.11.22 16:07</t>
+          <t>2023.11.23 04:50</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1.0858</t>
+          <t>0.8281</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 08:06</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>1.08782</t>
+          <t>0.82753</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>-4,04 USD</t>
+          <t>-0,42 USD</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2023.11.22 16:04</t>
+          <t>2023.11.23 03:12</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0.6002</t>
+          <t>1.25002</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 08:06</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.6019</t>
+          <t>1.25017</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>-8,50 USD</t>
+          <t>0,30 USD</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>USDCHF</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3653,34 +3653,34 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2023.11.22 15:58</t>
+          <t>2023.11.23 07:03</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1.24818</t>
+          <t>0.88249</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 08:06</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>1.24815</t>
+          <t>0.88306</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0,09 USD</t>
+          <t>-0,65 USD</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3690,44 +3690,44 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2023.11.22 16:01</t>
+          <t>2023.11.23 03:13</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0.65263</t>
+          <t>0.6558</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 08:06</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.65416</t>
+          <t>0.65597</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>-4,59 USD</t>
+          <t>0,17 USD</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3737,39 +3737,39 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2023.11.22 15:57</t>
+          <t>2023.11.23 00:02</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0.65345</t>
+          <t>1.24917</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2023.11.22 18:19</t>
+          <t>2023.11.23 03:11</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>0.65416</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>-7,10 USD</t>
+          <t>-4,15 USD</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>EURGBP</t>
+          <t>EURJPY</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3779,12 +3779,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.22 16:12</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0.87111</t>
+          <t>162.492</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3794,39 +3794,39 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.87148</t>
+          <t>162.732</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>0,92 USD</t>
+          <t>4,82 USD</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CHFJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2023.11.22 16:11</t>
+          <t>2023.11.22 16:40</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>168.734</t>
+          <t>1.24487</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3836,24 +3836,24 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>169.187</t>
+          <t>1.24815</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>6,05 USD</t>
+          <t>-9,84 USD</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CADJPY</t>
+          <t>USDJPY</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3863,12 +3863,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2023.11.22 16:41</t>
+          <t>2023.11.22 16:02</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>108.85</t>
+          <t>149.523</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3878,12 +3878,12 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>109.076</t>
+          <t>149.587</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>3,02 USD</t>
+          <t>1,28 USD</t>
         </is>
       </c>
     </row>
@@ -3895,22 +3895,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CADJPY</t>
+          <t>NZDCHF</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2023.11.22 16:14</t>
+          <t>2023.11.22 16:13</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>108.809</t>
+          <t>0.5322</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3920,54 +3920,54 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>109.076</t>
+          <t>0.53236</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>5,35 USD</t>
+          <t>-0,54 USD</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>EURGBP</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.22 16:07</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0.87111</t>
+          <t>1.08579</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2023.11.22 17:03</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.87206</t>
+          <t>1.08782</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>2,36 USD</t>
+          <t>-2,03 USD</t>
         </is>
       </c>
     </row>
@@ -3979,49 +3979,49 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CHFJPY</t>
+          <t>EURUSD</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2023.11.22 16:11</t>
+          <t>2023.11.22 16:07</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>168.734</t>
+          <t>1.0858</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2023.11.22 17:03</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>168.971</t>
+          <t>1.08782</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>3,17 USD</t>
+          <t>-4,04 USD</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>GBPUSD</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4031,118 +4031,118 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2023.11.22 16:00</t>
+          <t>2023.11.22 16:04</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1.24713</t>
+          <t>0.6002</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2023.11.22 17:03</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.24618</t>
+          <t>0.6019</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>3,80 USD</t>
+          <t>-8,50 USD</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>CHFJPY</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2023.11.22 15:43</t>
+          <t>2023.11.22 15:58</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>168.725</t>
+          <t>1.24818</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2023.11.22 15:56</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>168.575</t>
+          <t>1.24815</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>-2,01 USD</t>
+          <t>0,09 USD</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>USDJPY</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2023.11.22 15:31</t>
+          <t>2023.11.22 16:01</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>149.337</t>
+          <t>0.65263</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2023.11.22 15:42</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>149.242</t>
+          <t>0.65416</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>-6,37 USD</t>
+          <t>-4,59 USD</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4157,27 +4157,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2023.11.22 15:33</t>
+          <t>2023.11.22 15:57</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0.65342</t>
+          <t>0.65345</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2023.11.22 15:42</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.65446</t>
+          <t>0.65416</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>-3,12 USD</t>
+          <t>-7,10 USD</t>
         </is>
       </c>
     </row>
@@ -4189,133 +4189,133 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NZDUSD</t>
+          <t>EURGBP</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2023.11.22 15:32</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0.60142</t>
+          <t>0.87111</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2023.11.22 15:42</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.60212</t>
+          <t>0.87148</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>-1,40 USD</t>
+          <t>0,92 USD</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>EURUSD</t>
+          <t>CHFJPY</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2023.11.22 15:15</t>
+          <t>2023.11.22 16:11</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1.08742</t>
+          <t>168.734</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2023.11.22 15:30</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>1.08826</t>
+          <t>169.187</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>-0,84 USD</t>
+          <t>6,05 USD</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>CADJPY</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2023.11.22 15:05</t>
+          <t>2023.11.22 16:41</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0.65445</t>
+          <t>108.85</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2023.11.22 15:30</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.65426</t>
+          <t>109.076</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>0,19 USD</t>
+          <t>3,02 USD</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>CHFJPY</t>
+          <t>CADJPY</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4325,39 +4325,39 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2023.11.22 14:33</t>
+          <t>2023.11.22 16:14</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>168.66</t>
+          <t>108.809</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.22 18:19</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>168.793</t>
+          <t>109.076</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>0,89 USD</t>
+          <t>5,35 USD</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>EURJPY</t>
+          <t>EURGBP</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4367,27 +4367,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2023.11.22 14:33</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>162.421</t>
+          <t>0.87111</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.22 17:03</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>162.562</t>
+          <t>0.87206</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>0,95 USD</t>
+          <t>2,36 USD</t>
         </is>
       </c>
     </row>
@@ -4399,91 +4399,91 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CADJPY</t>
+          <t>CHFJPY</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>sell</t>
+          <t>buy</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2023.11.22 11:55</t>
+          <t>2023.11.22 16:11</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>108.688</t>
+          <t>168.734</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.22 17:03</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>108.712</t>
+          <t>168.971</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>-0,32 USD</t>
+          <t>3,17 USD</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AUDCAD</t>
+          <t>GBPUSD</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2023.11.22 12:05</t>
+          <t>2023.11.22 16:00</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0.89941</t>
+          <t>1.24713</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.22 17:03</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.89909</t>
+          <t>1.24618</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>-0,23 USD</t>
+          <t>3,80 USD</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>AUDUSD</t>
+          <t>CHFJPY</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4493,34 +4493,34 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2023.11.22 12:03</t>
+          <t>2023.11.22 15:43</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0.65633</t>
+          <t>168.725</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2023.11.22 15:04</t>
+          <t>2023.11.22 15:56</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.65448</t>
+          <t>168.575</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>-1,85 USD</t>
+          <t>-2,01 USD</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -4535,111 +4535,111 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2023.11.22 11:34</t>
+          <t>2023.11.22 15:31</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>149.148</t>
+          <t>149.337</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2023.11.22 11:54</t>
+          <t>2023.11.22 15:42</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>148.982</t>
+          <t>149.242</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>-2,23 USD</t>
+          <t>-6,37 USD</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>CADJPY</t>
+          <t>AUDUSD</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2023.11.22 11:31</t>
+          <t>2023.11.22 15:33</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>108.767</t>
+          <t>0.65342</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2023.11.22 11:54</t>
+          <t>2023.11.22 15:42</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>108.698</t>
+          <t>0.65446</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>-3,70 USD</t>
+          <t>-3,12 USD</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>0,01</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>AUDJPY</t>
+          <t>NZDUSD</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>buy</t>
+          <t>sell</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2023.11.22 11:20</t>
+          <t>2023.11.22 15:32</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>97.789</t>
+          <t>0.60142</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2023.11.22 11:30</t>
+          <t>2023.11.22 15:42</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>97.7</t>
+          <t>0.60212</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>-0,59 USD</t>
+          <t>-1,40 USD</t>
         </is>
       </c>
     </row>
@@ -4651,35 +4651,455 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>EURUSD</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:15</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>1.08742</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:30</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>1.08826</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-0,84 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>0.65445</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:30</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.65426</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>0,19 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CHFJPY</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:33</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>168.66</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>168.793</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>0,89 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>EURJPY</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023.11.22 14:33</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>162.421</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>162.562</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>0,95 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CADJPY</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>sell</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>108.688</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>108.712</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>-0,32 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>AUDCAD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:05</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0.89941</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.89909</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>-0,23 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>AUDUSD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023.11.22 12:03</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0.65633</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2023.11.22 15:04</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.65448</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>-1,85 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>USDJPY</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:34</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>149.148</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:54</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>148.982</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>-2,23 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CADJPY</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:31</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>108.767</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:54</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>108.698</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>-3,70 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>AUDJPY</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>buy</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:20</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>97.789</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2023.11.22 11:30</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>97.7</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>-0,59 USD</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>EURAUD</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>sell</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>2023.11.22 11:07</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1.66273</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>2023.11.22 11:30</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>1.66326</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>-0,35 USD</t>
         </is>
